--- a/data/hw_train_exp.xlsx
+++ b/data/hw_train_exp.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13464" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13470"/>
   </bookViews>
   <sheets>
-    <sheet name="wg24" sheetId="1" r:id="rId1"/>
-    <sheet name="wg16" sheetId="2" r:id="rId2"/>
+    <sheet name="wg32" sheetId="3" r:id="rId1"/>
+    <sheet name="wg24" sheetId="1" r:id="rId2"/>
+    <sheet name="wg16" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8331,13 +8332,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8369,7 +8370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>60.45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>69.930000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -8401,7 +8402,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>80.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>80.67</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>35</v>
       </c>
@@ -8425,10 +8426,10 @@
         <v>84.4</v>
       </c>
       <c r="C8">
-        <v>86.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
@@ -8436,10 +8437,10 @@
         <v>84.72</v>
       </c>
       <c r="C9">
-        <v>86.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45</v>
       </c>
@@ -8447,10 +8448,10 @@
         <v>85.25</v>
       </c>
       <c r="C10">
-        <v>87.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
@@ -8458,10 +8459,10 @@
         <v>84.71</v>
       </c>
       <c r="C11">
-        <v>87.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>55</v>
       </c>
@@ -8469,10 +8470,10 @@
         <v>84.07</v>
       </c>
       <c r="C12">
-        <v>87.63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>60</v>
       </c>
@@ -8480,10 +8481,10 @@
         <v>85.34</v>
       </c>
       <c r="C13">
-        <v>87.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>65</v>
       </c>
@@ -8491,13 +8492,1297 @@
         <v>88.56</v>
       </c>
       <c r="C14">
+        <v>88.21</v>
+      </c>
+      <c r="D14">
+        <v>88.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>87.99</v>
+      </c>
+      <c r="C15">
+        <v>88.09</v>
+      </c>
+      <c r="D15">
+        <v>89.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>88.68</v>
+      </c>
+      <c r="C16">
+        <v>88.34</v>
+      </c>
+      <c r="D16">
+        <v>89.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>87.38</v>
+      </c>
+      <c r="C17">
+        <v>88.08</v>
+      </c>
+      <c r="D17">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>87.96</v>
+      </c>
+      <c r="C18">
+        <v>88.47</v>
+      </c>
+      <c r="D18">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>87.94</v>
+      </c>
+      <c r="C19">
+        <v>88.41</v>
+      </c>
+      <c r="D19">
+        <v>90.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>89.4</v>
+      </c>
+      <c r="C20">
+        <v>88.45</v>
+      </c>
+      <c r="D20">
+        <v>90.35</v>
+      </c>
+      <c r="E20">
+        <v>89.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>89.32</v>
+      </c>
+      <c r="C21">
+        <v>88.5</v>
+      </c>
+      <c r="D21">
+        <v>90.33</v>
+      </c>
+      <c r="E21">
+        <v>90.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>89.42</v>
+      </c>
+      <c r="C22">
+        <v>88.55</v>
+      </c>
+      <c r="D22">
+        <v>90.4</v>
+      </c>
+      <c r="E22">
+        <v>90.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <v>89.44</v>
+      </c>
+      <c r="C23">
+        <v>88.5</v>
+      </c>
+      <c r="D23">
+        <v>90.42</v>
+      </c>
+      <c r="E23">
+        <v>90.57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>89.67</v>
+      </c>
+      <c r="C24">
+        <v>88.52</v>
+      </c>
+      <c r="D24">
+        <v>90.33</v>
+      </c>
+      <c r="E24">
+        <v>90.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>89.29</v>
+      </c>
+      <c r="C25">
+        <v>88.66</v>
+      </c>
+      <c r="D25">
+        <v>90.34</v>
+      </c>
+      <c r="E25">
+        <v>90.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>90.41</v>
+      </c>
+      <c r="C26">
+        <v>88.6</v>
+      </c>
+      <c r="D26">
+        <v>90.52</v>
+      </c>
+      <c r="E26">
+        <v>90.7</v>
+      </c>
+      <c r="F26">
+        <v>88.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>130</v>
+      </c>
+      <c r="B27">
+        <v>90.19</v>
+      </c>
+      <c r="C27">
+        <v>88.72</v>
+      </c>
+      <c r="D27">
+        <v>90.46</v>
+      </c>
+      <c r="E27">
+        <v>90.73</v>
+      </c>
+      <c r="F27">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>135</v>
+      </c>
+      <c r="B28">
+        <v>90.36</v>
+      </c>
+      <c r="C28">
+        <v>88.68</v>
+      </c>
+      <c r="D28">
+        <v>90.47</v>
+      </c>
+      <c r="E28">
+        <v>90.71</v>
+      </c>
+      <c r="F28">
+        <v>90.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>90.52</v>
+      </c>
+      <c r="C29">
+        <v>88.75</v>
+      </c>
+      <c r="D29">
+        <v>90.57</v>
+      </c>
+      <c r="E29">
+        <v>90.56</v>
+      </c>
+      <c r="F29">
+        <v>90.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>145</v>
+      </c>
+      <c r="B30">
+        <v>88.41</v>
+      </c>
+      <c r="C30">
+        <v>88.89</v>
+      </c>
+      <c r="D30">
+        <v>90.54</v>
+      </c>
+      <c r="E30">
+        <v>90.51</v>
+      </c>
+      <c r="F30">
+        <v>90.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>89.95</v>
+      </c>
+      <c r="C31">
+        <v>88.71</v>
+      </c>
+      <c r="D31">
+        <v>90.6</v>
+      </c>
+      <c r="E31">
+        <v>90.77</v>
+      </c>
+      <c r="F31">
+        <v>90.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>89.75</v>
+      </c>
+      <c r="C32">
+        <v>88.69</v>
+      </c>
+      <c r="D32">
+        <v>90.58</v>
+      </c>
+      <c r="E32">
+        <v>90.77</v>
+      </c>
+      <c r="F32">
+        <v>90.49</v>
+      </c>
+      <c r="G32">
+        <v>87.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>160</v>
+      </c>
+      <c r="B33">
+        <v>90.31</v>
+      </c>
+      <c r="C33">
+        <v>88.74</v>
+      </c>
+      <c r="D33">
+        <v>90.55</v>
+      </c>
+      <c r="E33">
+        <v>90.68</v>
+      </c>
+      <c r="F33">
+        <v>90.47</v>
+      </c>
+      <c r="G33">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>165</v>
+      </c>
+      <c r="B34">
+        <v>89.88</v>
+      </c>
+      <c r="C34">
+        <v>88.86</v>
+      </c>
+      <c r="D34">
+        <v>90.54</v>
+      </c>
+      <c r="E34">
+        <v>90.8</v>
+      </c>
+      <c r="F34">
+        <v>90.62</v>
+      </c>
+      <c r="G34">
+        <v>89.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>170</v>
+      </c>
+      <c r="B35">
+        <v>90.32</v>
+      </c>
+      <c r="C35">
+        <v>88.8</v>
+      </c>
+      <c r="D35">
+        <v>90.44</v>
+      </c>
+      <c r="E35">
+        <v>90.72</v>
+      </c>
+      <c r="F35">
+        <v>90.59</v>
+      </c>
+      <c r="G35">
+        <v>89.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>89.55</v>
+      </c>
+      <c r="C36">
+        <v>88.72</v>
+      </c>
+      <c r="D36">
+        <v>90.55</v>
+      </c>
+      <c r="E36">
+        <v>90.71</v>
+      </c>
+      <c r="F36">
+        <v>90.68</v>
+      </c>
+      <c r="G36">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>89.88</v>
+      </c>
+      <c r="C37">
+        <v>88.71</v>
+      </c>
+      <c r="D37">
+        <v>90.5</v>
+      </c>
+      <c r="E37">
+        <v>90.74</v>
+      </c>
+      <c r="F37">
+        <v>90.64</v>
+      </c>
+      <c r="G37">
+        <v>89.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>90.47</v>
+      </c>
+      <c r="C38">
+        <v>88.79</v>
+      </c>
+      <c r="D38">
+        <v>90.49</v>
+      </c>
+      <c r="E38">
+        <v>90.75</v>
+      </c>
+      <c r="F38">
+        <v>90.66</v>
+      </c>
+      <c r="G38">
+        <v>89.83</v>
+      </c>
+      <c r="H38">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>190</v>
+      </c>
+      <c r="B39">
+        <v>90.29</v>
+      </c>
+      <c r="C39">
+        <v>88.83</v>
+      </c>
+      <c r="D39">
+        <v>90.5</v>
+      </c>
+      <c r="E39">
+        <v>90.78</v>
+      </c>
+      <c r="F39">
+        <v>90.69</v>
+      </c>
+      <c r="G39">
+        <v>89.77</v>
+      </c>
+      <c r="H39">
+        <v>88.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>90.07</v>
+      </c>
+      <c r="C40">
+        <v>88.93</v>
+      </c>
+      <c r="D40">
+        <v>90.51</v>
+      </c>
+      <c r="E40">
+        <v>90.75</v>
+      </c>
+      <c r="F40">
+        <v>90.61</v>
+      </c>
+      <c r="G40">
+        <v>89.88</v>
+      </c>
+      <c r="H40">
+        <v>88.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>200</v>
+      </c>
+      <c r="B41">
+        <v>90.45</v>
+      </c>
+      <c r="C41">
+        <v>88.92</v>
+      </c>
+      <c r="D41">
+        <v>90.56</v>
+      </c>
+      <c r="E41">
+        <v>90.85</v>
+      </c>
+      <c r="F41">
+        <v>90.56</v>
+      </c>
+      <c r="G41">
+        <v>90.03</v>
+      </c>
+      <c r="H41">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>205</v>
+      </c>
+      <c r="B42">
+        <v>90.43</v>
+      </c>
+      <c r="C42">
+        <v>88.85</v>
+      </c>
+      <c r="D42">
+        <v>90.58</v>
+      </c>
+      <c r="E42">
+        <v>90.8</v>
+      </c>
+      <c r="F42">
+        <v>90.65</v>
+      </c>
+      <c r="G42">
+        <v>90.1</v>
+      </c>
+      <c r="H42">
+        <v>89.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>210</v>
+      </c>
+      <c r="B43">
+        <v>90.23</v>
+      </c>
+      <c r="C43">
+        <v>88.93</v>
+      </c>
+      <c r="D43">
+        <v>90.56</v>
+      </c>
+      <c r="E43">
+        <v>90.86</v>
+      </c>
+      <c r="F43">
+        <v>90.66</v>
+      </c>
+      <c r="G43">
+        <v>90.1</v>
+      </c>
+      <c r="H43">
+        <v>89.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>215</v>
+      </c>
+      <c r="B44">
+        <v>89.95</v>
+      </c>
+      <c r="C44">
+        <v>88.82</v>
+      </c>
+      <c r="D44">
+        <v>90.59</v>
+      </c>
+      <c r="E44">
+        <v>90.71</v>
+      </c>
+      <c r="F44">
+        <v>90.74</v>
+      </c>
+      <c r="G44">
+        <v>90.09</v>
+      </c>
+      <c r="H44">
+        <v>89.49</v>
+      </c>
+      <c r="I44">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>90.55</v>
+      </c>
+      <c r="C45">
+        <v>88.81</v>
+      </c>
+      <c r="D45">
+        <v>90.64</v>
+      </c>
+      <c r="E45">
+        <v>90.72</v>
+      </c>
+      <c r="F45">
+        <v>90.59</v>
+      </c>
+      <c r="G45">
+        <v>90.2</v>
+      </c>
+      <c r="H45">
+        <v>89.47</v>
+      </c>
+      <c r="I45">
+        <v>88.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>225</v>
+      </c>
+      <c r="B46">
+        <v>90.61</v>
+      </c>
+      <c r="C46">
+        <v>88.87</v>
+      </c>
+      <c r="D46">
+        <v>90.39</v>
+      </c>
+      <c r="E46">
+        <v>90.64</v>
+      </c>
+      <c r="F46">
+        <v>90.71</v>
+      </c>
+      <c r="G46">
+        <v>90.14</v>
+      </c>
+      <c r="H46">
+        <v>89.51</v>
+      </c>
+      <c r="I46">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>230</v>
+      </c>
+      <c r="B47">
+        <v>90.5</v>
+      </c>
+      <c r="C47">
+        <v>88.91</v>
+      </c>
+      <c r="D47">
+        <v>90.47</v>
+      </c>
+      <c r="E47">
+        <v>90.62</v>
+      </c>
+      <c r="F47">
+        <v>90.69</v>
+      </c>
+      <c r="G47">
+        <v>90.3</v>
+      </c>
+      <c r="H47">
+        <v>89.65</v>
+      </c>
+      <c r="I47">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>235</v>
+      </c>
+      <c r="B48">
+        <v>90.79</v>
+      </c>
+      <c r="C48">
+        <v>88.78</v>
+      </c>
+      <c r="D48">
+        <v>90.55</v>
+      </c>
+      <c r="E48">
+        <v>90.65</v>
+      </c>
+      <c r="F48">
+        <v>90.6</v>
+      </c>
+      <c r="G48">
+        <v>90.23</v>
+      </c>
+      <c r="H48">
+        <v>89.82</v>
+      </c>
+      <c r="I48">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>240</v>
+      </c>
+      <c r="B49">
+        <v>90.62</v>
+      </c>
+      <c r="C49">
+        <v>88.76</v>
+      </c>
+      <c r="D49">
+        <v>90.5</v>
+      </c>
+      <c r="E49">
+        <v>90.65</v>
+      </c>
+      <c r="F49">
+        <v>90.68</v>
+      </c>
+      <c r="G49">
+        <v>90.21</v>
+      </c>
+      <c r="H49">
+        <v>89.69</v>
+      </c>
+      <c r="I49">
+        <v>88.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>245</v>
+      </c>
+      <c r="C50">
+        <v>88.85</v>
+      </c>
+      <c r="D50">
+        <v>90.53</v>
+      </c>
+      <c r="E50">
+        <v>90.73</v>
+      </c>
+      <c r="F50">
+        <v>90.65</v>
+      </c>
+      <c r="G50">
+        <v>90.28</v>
+      </c>
+      <c r="H50">
+        <v>89.87</v>
+      </c>
+      <c r="I50">
+        <v>88.85</v>
+      </c>
+      <c r="J50">
+        <v>87.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>250</v>
+      </c>
+      <c r="C51">
+        <v>88.83</v>
+      </c>
+      <c r="D51">
+        <v>90.51</v>
+      </c>
+      <c r="E51">
+        <v>90.7</v>
+      </c>
+      <c r="F51">
+        <v>90.7</v>
+      </c>
+      <c r="G51">
+        <v>90.27</v>
+      </c>
+      <c r="H51">
+        <v>89.78</v>
+      </c>
+      <c r="I51">
+        <v>88.98</v>
+      </c>
+      <c r="J51">
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>255</v>
+      </c>
+      <c r="C52">
+        <v>88.86</v>
+      </c>
+      <c r="D52">
+        <v>90.53</v>
+      </c>
+      <c r="E52">
+        <v>90.78</v>
+      </c>
+      <c r="F52">
+        <v>90.66</v>
+      </c>
+      <c r="G52">
+        <v>90.3</v>
+      </c>
+      <c r="H52">
+        <v>89.88</v>
+      </c>
+      <c r="I52">
+        <v>89.02</v>
+      </c>
+      <c r="J52">
+        <v>87.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>260</v>
+      </c>
+      <c r="C53">
+        <v>88.8</v>
+      </c>
+      <c r="D53">
+        <v>90.45</v>
+      </c>
+      <c r="E53">
+        <v>90.64</v>
+      </c>
+      <c r="F53">
+        <v>90.72</v>
+      </c>
+      <c r="G53">
+        <v>90.34</v>
+      </c>
+      <c r="H53">
+        <v>90</v>
+      </c>
+      <c r="I53">
+        <v>89.15</v>
+      </c>
+      <c r="J53">
+        <v>87.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>265</v>
+      </c>
+      <c r="C54">
+        <v>88.87</v>
+      </c>
+      <c r="D54">
+        <v>90.5</v>
+      </c>
+      <c r="E54">
+        <v>90.62</v>
+      </c>
+      <c r="F54">
+        <v>90.65</v>
+      </c>
+      <c r="G54">
+        <v>90.31</v>
+      </c>
+      <c r="H54">
+        <v>89.93</v>
+      </c>
+      <c r="I54">
+        <v>89.04</v>
+      </c>
+      <c r="J54">
+        <v>87.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>270</v>
+      </c>
+      <c r="C55">
+        <v>88.89</v>
+      </c>
+      <c r="D55">
+        <v>90.59</v>
+      </c>
+      <c r="E55">
+        <v>90.72</v>
+      </c>
+      <c r="F55">
+        <v>90.73</v>
+      </c>
+      <c r="G55">
+        <v>90.31</v>
+      </c>
+      <c r="H55">
+        <v>89.93</v>
+      </c>
+      <c r="I55">
+        <v>89.19</v>
+      </c>
+      <c r="J55">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>275</v>
+      </c>
+      <c r="C56">
+        <v>88.85</v>
+      </c>
+      <c r="D56">
+        <v>90.53</v>
+      </c>
+      <c r="E56">
+        <v>90.66</v>
+      </c>
+      <c r="F56">
+        <v>90.68</v>
+      </c>
+      <c r="G56">
+        <v>90.31</v>
+      </c>
+      <c r="H56">
+        <v>89.95</v>
+      </c>
+      <c r="I56">
+        <v>89.24</v>
+      </c>
+      <c r="J56">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>280</v>
+      </c>
+      <c r="C57">
+        <v>88.84</v>
+      </c>
+      <c r="D57">
+        <v>90.5</v>
+      </c>
+      <c r="E57">
+        <v>90.62</v>
+      </c>
+      <c r="F57">
+        <v>90.62</v>
+      </c>
+      <c r="G57">
+        <v>90.18</v>
+      </c>
+      <c r="H57">
+        <v>89.87</v>
+      </c>
+      <c r="I57">
+        <v>89.12</v>
+      </c>
+      <c r="J57">
+        <v>88.21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>285</v>
+      </c>
+      <c r="C58">
+        <v>88.87</v>
+      </c>
+      <c r="D58">
+        <v>90.51</v>
+      </c>
+      <c r="E58">
+        <v>90.72</v>
+      </c>
+      <c r="F58">
+        <v>90.66</v>
+      </c>
+      <c r="G58">
+        <v>90.28</v>
+      </c>
+      <c r="H58">
+        <v>89.99</v>
+      </c>
+      <c r="I58">
+        <v>89.22</v>
+      </c>
+      <c r="J58">
+        <v>88.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>290</v>
+      </c>
+      <c r="C59">
+        <v>88.85</v>
+      </c>
+      <c r="D59">
+        <v>90.55</v>
+      </c>
+      <c r="E59">
+        <v>90.69</v>
+      </c>
+      <c r="F59">
+        <v>90.67</v>
+      </c>
+      <c r="G59">
+        <v>90.27</v>
+      </c>
+      <c r="H59">
+        <v>89.93</v>
+      </c>
+      <c r="I59">
+        <v>89.27</v>
+      </c>
+      <c r="J59">
+        <v>88.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>295</v>
+      </c>
+      <c r="C60">
+        <v>88.84</v>
+      </c>
+      <c r="D60">
+        <v>90.5</v>
+      </c>
+      <c r="E60">
+        <v>90.77</v>
+      </c>
+      <c r="F60">
+        <v>90.62</v>
+      </c>
+      <c r="G60">
+        <v>90.36</v>
+      </c>
+      <c r="H60">
+        <v>89.97</v>
+      </c>
+      <c r="I60">
+        <v>89.35</v>
+      </c>
+      <c r="J60">
+        <v>88.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>300</v>
+      </c>
+      <c r="C61">
+        <v>88.82</v>
+      </c>
+      <c r="D61">
+        <v>90.51</v>
+      </c>
+      <c r="E61">
+        <v>90.69</v>
+      </c>
+      <c r="F61">
+        <v>90.69</v>
+      </c>
+      <c r="G61">
+        <v>90.34</v>
+      </c>
+      <c r="H61">
+        <v>89.92</v>
+      </c>
+      <c r="I61">
+        <v>89.41</v>
+      </c>
+      <c r="J61">
+        <v>88.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>60.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>69.930000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>80.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>84.4</v>
+      </c>
+      <c r="C8">
+        <v>86.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>84.72</v>
+      </c>
+      <c r="C9">
+        <v>86.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>85.25</v>
+      </c>
+      <c r="C10">
+        <v>87.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>84.71</v>
+      </c>
+      <c r="C11">
+        <v>87.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>84.07</v>
+      </c>
+      <c r="C12">
+        <v>87.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>85.34</v>
+      </c>
+      <c r="C13">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>88.56</v>
+      </c>
+      <c r="C14">
         <v>88.38</v>
       </c>
       <c r="D14">
         <v>89.25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>70</v>
       </c>
@@ -8511,7 +9796,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
@@ -8525,7 +9810,7 @@
         <v>89.87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -8539,7 +9824,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>85</v>
       </c>
@@ -8553,7 +9838,7 @@
         <v>90.16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>90</v>
       </c>
@@ -8567,7 +9852,7 @@
         <v>90.22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>95</v>
       </c>
@@ -8584,7 +9869,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -8601,7 +9886,7 @@
         <v>90.15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>105</v>
       </c>
@@ -8618,7 +9903,7 @@
         <v>90.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>110</v>
       </c>
@@ -8635,7 +9920,7 @@
         <v>90.56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>115</v>
       </c>
@@ -8652,7 +9937,7 @@
         <v>90.29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>120</v>
       </c>
@@ -8669,7 +9954,7 @@
         <v>90.44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>125</v>
       </c>
@@ -8689,7 +9974,7 @@
         <v>89.21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130</v>
       </c>
@@ -8709,7 +9994,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>135</v>
       </c>
@@ -8729,7 +10014,7 @@
         <v>90.08</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>140</v>
       </c>
@@ -8749,7 +10034,7 @@
         <v>90.17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>145</v>
       </c>
@@ -8769,7 +10054,7 @@
         <v>90.29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>150</v>
       </c>
@@ -8789,7 +10074,7 @@
         <v>90.38</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>155</v>
       </c>
@@ -8812,7 +10097,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>160</v>
       </c>
@@ -8835,7 +10120,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>165</v>
       </c>
@@ -8858,7 +10143,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>170</v>
       </c>
@@ -8881,7 +10166,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>175</v>
       </c>
@@ -8904,7 +10189,7 @@
         <v>89.42</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>180</v>
       </c>
@@ -8927,7 +10212,7 @@
         <v>89.74</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>185</v>
       </c>
@@ -8953,7 +10238,7 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>190</v>
       </c>
@@ -8979,7 +10264,7 @@
         <v>88.56</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>195</v>
       </c>
@@ -9005,7 +10290,7 @@
         <v>89.11</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>200</v>
       </c>
@@ -9031,7 +10316,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>205</v>
       </c>
@@ -9057,7 +10342,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>210</v>
       </c>
@@ -9083,7 +10368,7 @@
         <v>89.66</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>215</v>
       </c>
@@ -9112,7 +10397,7 @@
         <v>88.12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>220</v>
       </c>
@@ -9141,7 +10426,7 @@
         <v>88.18</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>225</v>
       </c>
@@ -9170,7 +10455,7 @@
         <v>88.28</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>230</v>
       </c>
@@ -9199,7 +10484,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>235</v>
       </c>
@@ -9228,7 +10513,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>240</v>
       </c>
@@ -9257,7 +10542,7 @@
         <v>89.06</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>245</v>
       </c>
@@ -9286,7 +10571,7 @@
         <v>87.56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>250</v>
       </c>
@@ -9315,7 +10600,7 @@
         <v>87.51</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>255</v>
       </c>
@@ -9344,7 +10629,7 @@
         <v>87.38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>260</v>
       </c>
@@ -9373,7 +10658,7 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>265</v>
       </c>
@@ -9402,7 +10687,7 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>270</v>
       </c>
@@ -9431,7 +10716,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>275</v>
       </c>
@@ -9460,7 +10745,7 @@
         <v>87.54</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>280</v>
       </c>
@@ -9489,7 +10774,7 @@
         <v>87.51</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>285</v>
       </c>
@@ -9518,7 +10803,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>290</v>
       </c>
@@ -9547,7 +10832,7 @@
         <v>87.52</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>295</v>
       </c>
@@ -9576,7 +10861,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>300</v>
       </c>
@@ -9612,17 +10897,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9654,7 +10939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -9662,7 +10947,7 @@
         <v>60.45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -9670,7 +10955,7 @@
         <v>69.930000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -9678,7 +10963,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -9686,7 +10971,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
@@ -9694,7 +10979,7 @@
         <v>80.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -9702,7 +10987,7 @@
         <v>80.67</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>35</v>
       </c>
@@ -9713,7 +10998,7 @@
         <v>86.03</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
@@ -9724,7 +11009,7 @@
         <v>86.78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45</v>
       </c>
@@ -9735,7 +11020,7 @@
         <v>87.29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
@@ -9746,7 +11031,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>55</v>
       </c>
@@ -9757,7 +11042,7 @@
         <v>87.89</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>60</v>
       </c>
@@ -9768,7 +11053,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>65</v>
       </c>
@@ -9782,7 +11067,7 @@
         <v>88.82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>70</v>
       </c>
@@ -9796,7 +11081,7 @@
         <v>89.49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
@@ -9810,7 +11095,7 @@
         <v>89.91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -9824,7 +11109,7 @@
         <v>89.93</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>85</v>
       </c>
@@ -9838,7 +11123,7 @@
         <v>90.16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>90</v>
       </c>
@@ -9852,7 +11137,7 @@
         <v>90.22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>95</v>
       </c>
@@ -9869,7 +11154,7 @@
         <v>88.27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -9886,7 +11171,7 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>105</v>
       </c>
@@ -9903,7 +11188,7 @@
         <v>88.96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>110</v>
       </c>
@@ -9920,7 +11205,7 @@
         <v>88.94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>115</v>
       </c>
@@ -9937,7 +11222,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>120</v>
       </c>
@@ -9954,7 +11239,7 @@
         <v>89.29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>125</v>
       </c>
@@ -9974,7 +11259,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130</v>
       </c>
@@ -9994,7 +11279,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>135</v>
       </c>
@@ -10014,7 +11299,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>140</v>
       </c>
@@ -10034,7 +11319,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>145</v>
       </c>
@@ -10054,7 +11339,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>150</v>
       </c>
@@ -10074,7 +11359,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>155</v>
       </c>
@@ -10097,7 +11382,7 @@
         <v>82.85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>160</v>
       </c>
@@ -10120,7 +11405,7 @@
         <v>82.85</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>165</v>
       </c>
@@ -10143,7 +11428,7 @@
         <v>82.85</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>170</v>
       </c>
@@ -10166,7 +11451,7 @@
         <v>82.85</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>175</v>
       </c>
@@ -10189,7 +11474,7 @@
         <v>82.85</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>180</v>
       </c>
@@ -10212,7 +11497,7 @@
         <v>82.85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>185</v>
       </c>
@@ -10238,7 +11523,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>190</v>
       </c>
@@ -10264,7 +11549,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>195</v>
       </c>
@@ -10290,7 +11575,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>200</v>
       </c>
@@ -10316,7 +11601,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>205</v>
       </c>
@@ -10342,7 +11627,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>210</v>
       </c>
@@ -10368,7 +11653,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>215</v>
       </c>
@@ -10397,7 +11682,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>220</v>
       </c>
@@ -10426,7 +11711,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>225</v>
       </c>
@@ -10455,7 +11740,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>230</v>
       </c>
@@ -10484,7 +11769,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>235</v>
       </c>
@@ -10513,7 +11798,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>240</v>
       </c>
@@ -10542,7 +11827,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>245</v>
       </c>
@@ -10571,7 +11856,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>250</v>
       </c>
@@ -10600,7 +11885,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>255</v>
       </c>
@@ -10629,7 +11914,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>260</v>
       </c>
@@ -10658,7 +11943,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>265</v>
       </c>
@@ -10687,7 +11972,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>270</v>
       </c>
@@ -10716,7 +12001,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>275</v>
       </c>
@@ -10745,7 +12030,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>280</v>
       </c>
@@ -10774,7 +12059,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>285</v>
       </c>
@@ -10803,7 +12088,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>290</v>
       </c>
@@ -10832,7 +12117,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>295</v>
       </c>
@@ -10861,7 +12146,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>300</v>
       </c>
